--- a/work/dynamic-adsorption.xlsx
+++ b/work/dynamic-adsorption.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -145,7 +145,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B14"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -442,105 +442,561 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>1.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>2.2999999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>3.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="B7">
-        <v>3.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="B8">
-        <v>4.1500000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="B9">
-        <v>4.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="B10">
-        <v>4.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="B11">
-        <v>5.0999999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="B12">
-        <v>5.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="B13">
-        <v>5.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
+        <v>65</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>70</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>75</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>80</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>85</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>90</v>
+      </c>
+      <c r="B19">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>95</v>
+      </c>
+      <c r="B20">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>105</v>
+      </c>
+      <c r="B22">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>110</v>
+      </c>
+      <c r="B23">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>115</v>
+      </c>
+      <c r="B24">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>120</v>
+      </c>
+      <c r="B25">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>125</v>
+      </c>
+      <c r="B26">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>130</v>
+      </c>
+      <c r="B27">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>135</v>
+      </c>
+      <c r="B28">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>140</v>
+      </c>
+      <c r="B29">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>145</v>
+      </c>
+      <c r="B30">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>150</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>155</v>
+      </c>
+      <c r="B32">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>160</v>
+      </c>
+      <c r="B33">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>165</v>
+      </c>
+      <c r="B34">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>170</v>
+      </c>
+      <c r="B35">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>175</v>
+      </c>
+      <c r="B36">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>180</v>
+      </c>
+      <c r="B37">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>185</v>
+      </c>
+      <c r="B38">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>190</v>
+      </c>
+      <c r="B39">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>195</v>
+      </c>
+      <c r="B40">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>200</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>205</v>
+      </c>
+      <c r="B42">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43">
         <v>210</v>
       </c>
-      <c r="B14">
+      <c r="B43">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>215</v>
+      </c>
+      <c r="B44">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>220</v>
+      </c>
+      <c r="B45">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>225</v>
+      </c>
+      <c r="B46">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>230</v>
+      </c>
+      <c r="B47">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>235</v>
+      </c>
+      <c r="B48">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>240</v>
+      </c>
+      <c r="B49">
+        <v>5.4560000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>245</v>
+      </c>
+      <c r="B50">
+        <v>5.4720000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>250</v>
+      </c>
+      <c r="B51">
+        <v>5.484</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>255</v>
+      </c>
+      <c r="B52">
+        <v>5.492</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>260</v>
+      </c>
+      <c r="B53">
+        <v>5.4859999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>265</v>
+      </c>
+      <c r="B54">
+        <v>5.4980000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>270</v>
+      </c>
+      <c r="B55">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>275</v>
+      </c>
+      <c r="B56">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>280</v>
+      </c>
+      <c r="B57">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>285</v>
+      </c>
+      <c r="B58">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>290</v>
+      </c>
+      <c r="B59">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>295</v>
+      </c>
+      <c r="B60">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>300</v>
+      </c>
+      <c r="B61">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>305</v>
+      </c>
+      <c r="B62">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>310</v>
+      </c>
+      <c r="B63">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>315</v>
+      </c>
+      <c r="B64">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>320</v>
+      </c>
+      <c r="B65">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>325</v>
+      </c>
+      <c r="B66">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>330</v>
+      </c>
+      <c r="B67">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>335</v>
+      </c>
+      <c r="B68">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>340</v>
+      </c>
+      <c r="B69">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>345</v>
+      </c>
+      <c r="B70">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>350</v>
+      </c>
+      <c r="B71">
         <v>5.5</v>
       </c>
     </row>
